--- a/newwisedata/testssh_ans/mcmc7_D.xlsx
+++ b/newwisedata/testssh_ans/mcmc7_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>599.8</v>
+        <v>2054.9</v>
       </c>
       <c r="D9" t="n">
         <v>2938</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>599.7</v>
+        <v>1459.9</v>
       </c>
       <c r="D19" t="n">
         <v>2877</v>
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2014 FD7</t>
+          <t>2010 XP69</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>410.4</v>
+        <v>202.3</v>
       </c>
       <c r="D29" t="n">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="E29" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -993,14 +993,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015 TF</t>
+          <t>2014 FD7</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+        <v>410.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>360</v>
+      </c>
+      <c r="E30" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1008,18 +1012,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2016 UH101</t>
+          <t>2015 TF</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>135.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>67</v>
-      </c>
-      <c r="E31" t="n">
-        <v>28</v>
-      </c>
+        <v>247.9</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1027,16 +1027,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2016 UH101</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>67</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>2019 DD2</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>599.8</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>450</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E33" t="n">
         <v>160</v>
       </c>
     </row>
